--- a/Hardware/Assembly/BOM/BOM_FULL.xlsx
+++ b/Hardware/Assembly/BOM/BOM_FULL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louisregnacq/Dropbox/Work/BioZ/BIMMS_git/Hardware/Assembly/BOM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louisregnacq/Dropbox/Work/BioZ/BIMMS/Hardware/Assembly/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F252D3-88C3-584C-99F3-B4FF8E368108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7183ABA2-7118-7449-B86C-02D827A81A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{FB9999E9-15A0-B344-A6E5-FA621128466F}"/>
+    <workbookView xWindow="26780" yWindow="7260" windowWidth="28800" windowHeight="16280" xr2:uid="{FB9999E9-15A0-B344-A6E5-FA621128466F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="206">
   <si>
     <t>Designator</t>
   </si>
@@ -216,9 +216,6 @@
     <t>D12,D9,D13,D10,D5,D4,D3,D1,D36,D28,D19,D18</t>
   </si>
   <si>
-    <t>Q17,Q16</t>
-  </si>
-  <si>
     <t>Y1</t>
   </si>
   <si>
@@ -540,9 +537,6 @@
     <t>RES 27 OHM 1/8W 1% 0603 SMD</t>
   </si>
   <si>
-    <t>RES 5K6 OHM 1/8W 1% 0603 SMD</t>
-  </si>
-  <si>
     <t>RES 390 OHM 1/8W 1% 0603 SMD</t>
   </si>
   <si>
@@ -646,6 +640,9 @@
   </si>
   <si>
     <t>TerminalScrew_1x04_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>Q27,Q26</t>
   </si>
 </sst>
 </file>
@@ -1222,13 +1219,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96C7EC4C-1DFA-B449-8F50-C880F69EAC96}">
   <dimension ref="A1:S113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="39" workbookViewId="0">
-      <selection activeCell="M57" sqref="M57"/>
+    <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="52.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="15" customWidth="1"/>
     <col min="3" max="3" width="19.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="34" style="7" customWidth="1"/>
@@ -1244,19 +1241,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="34" t="s">
         <v>201</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>203</v>
       </c>
       <c r="G1" s="28"/>
       <c r="H1" s="1"/>
@@ -1267,22 +1264,22 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>63</v>
+        <v>205</v>
       </c>
       <c r="B2" s="6">
         <v>2</v>
       </c>
       <c r="C2" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="E2" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="F2" s="30" t="s">
         <v>96</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>97</v>
       </c>
       <c r="G2" s="19"/>
       <c r="K2" s="15"/>
@@ -1290,22 +1287,22 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="6">
         <v>1</v>
       </c>
       <c r="C3" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="E3" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="F3" s="30" t="s">
         <v>100</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>101</v>
       </c>
       <c r="G3" s="19"/>
       <c r="K3" s="15"/>
@@ -1313,22 +1310,22 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="6">
         <v>1</v>
       </c>
       <c r="C4" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="E4" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="F4" s="30" t="s">
         <v>104</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>105</v>
       </c>
       <c r="G4" s="19"/>
       <c r="K4" s="15"/>
@@ -1336,22 +1333,22 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="6">
         <v>1</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D5" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="30" t="s">
-        <v>107</v>
-      </c>
       <c r="F5" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G5" s="19"/>
       <c r="K5" s="15"/>
@@ -1365,39 +1362,39 @@
         <v>4</v>
       </c>
       <c r="C6" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="E6" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="F6" s="30" t="s">
         <v>110</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>111</v>
       </c>
       <c r="G6" s="19"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
     </row>
-    <row r="7" spans="1:12" ht="41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" s="6">
         <v>23</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D7" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="F7" s="30" t="s">
         <v>114</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>115</v>
       </c>
       <c r="G7" s="19"/>
       <c r="K7" s="15"/>
@@ -1411,16 +1408,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" s="30" t="s">
+      <c r="F8" s="30" t="s">
         <v>118</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>119</v>
       </c>
       <c r="G8" s="19"/>
       <c r="K8" s="15"/>
@@ -1434,39 +1431,39 @@
         <v>6</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G9" s="19"/>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:12" ht="61" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="41" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B10" s="6">
         <v>24</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>51</v>
       </c>
       <c r="E10" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="30" t="s">
         <v>123</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>124</v>
       </c>
       <c r="G10" s="19"/>
       <c r="K10" s="15"/>
@@ -1480,16 +1477,16 @@
         <v>23</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G11" s="19"/>
       <c r="K11" s="15"/>
@@ -1503,16 +1500,16 @@
         <v>4</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G12" s="19"/>
       <c r="K12" s="15"/>
@@ -1526,16 +1523,16 @@
         <v>36</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G13" s="19"/>
       <c r="K13" s="15"/>
@@ -1549,16 +1546,16 @@
         <v>12</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G14" s="19"/>
       <c r="K14" s="15"/>
@@ -1572,16 +1569,16 @@
         <v>23</v>
       </c>
       <c r="C15" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="E15" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="F15" s="30" t="s">
         <v>131</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>132</v>
       </c>
       <c r="G15" s="19"/>
       <c r="K15" s="15"/>
@@ -1595,16 +1592,16 @@
         <v>12</v>
       </c>
       <c r="C16" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="E16" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="F16" s="30" t="s">
         <v>135</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>136</v>
       </c>
       <c r="G16" s="19"/>
       <c r="K16" s="15"/>
@@ -1618,16 +1615,16 @@
         <v>33</v>
       </c>
       <c r="C17" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="E17" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="F17" s="30" t="s">
         <v>139</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>140</v>
       </c>
       <c r="G17" s="19"/>
       <c r="K17" s="15"/>
@@ -1635,22 +1632,22 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B18" s="6">
         <v>1</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E18" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="F18" s="30" t="s">
         <v>141</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>142</v>
       </c>
       <c r="G18" s="19"/>
       <c r="K18" s="15"/>
@@ -1664,13 +1661,13 @@
         <v>51</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F19" s="30" t="s">
         <v>48</v>
@@ -1687,13 +1684,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F20" s="30" t="s">
         <v>48</v>
@@ -1704,19 +1701,19 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B21" s="6">
         <v>3</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D21" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E21" s="30" t="s">
         <v>146</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>147</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>61</v>
@@ -1727,22 +1724,22 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B22" s="6">
         <v>3</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D22" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="E22" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="F22" s="30" t="s">
         <v>150</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>151</v>
       </c>
       <c r="G22" s="19"/>
       <c r="K22" s="15"/>
@@ -1750,22 +1747,22 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23" s="6">
         <v>1</v>
       </c>
       <c r="C23" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="D23" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="E23" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="E23" s="30" t="s">
-        <v>154</v>
-      </c>
       <c r="F23" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G23" s="19"/>
       <c r="K23" s="15"/>
@@ -1773,22 +1770,22 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B24" s="6">
         <v>1</v>
       </c>
       <c r="C24" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D24" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="E24" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="E24" s="30" t="s">
+      <c r="F24" s="30" t="s">
         <v>157</v>
-      </c>
-      <c r="F24" s="30" t="s">
-        <v>158</v>
       </c>
       <c r="G24" s="19"/>
       <c r="K24" s="15"/>
@@ -1796,22 +1793,22 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25" s="6">
         <v>1</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D25" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="E25" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="E25" s="30" t="s">
-        <v>160</v>
-      </c>
       <c r="F25" s="30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G25" s="19"/>
       <c r="K25" s="20"/>
@@ -1821,22 +1818,22 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B26" s="6">
         <v>1</v>
       </c>
       <c r="C26" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="D26" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="30" t="s">
+      <c r="F26" s="30" t="s">
         <v>162</v>
-      </c>
-      <c r="F26" s="30" t="s">
-        <v>163</v>
       </c>
       <c r="G26" s="19"/>
       <c r="K26" s="20"/>
@@ -1846,22 +1843,22 @@
     </row>
     <row r="27" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B27" s="6">
         <v>3</v>
       </c>
       <c r="C27" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="D27" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="E27" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="E27" s="30" t="s">
+      <c r="F27" s="30" t="s">
         <v>166</v>
-      </c>
-      <c r="F27" s="30" t="s">
-        <v>167</v>
       </c>
       <c r="G27" s="19"/>
       <c r="H27" s="1"/>
@@ -1879,19 +1876,19 @@
     </row>
     <row r="28" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B28" s="6">
         <v>5</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F28" s="30" t="s">
         <v>50</v>
@@ -1912,19 +1909,19 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B29" s="6">
         <v>1</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F29" s="30" t="s">
         <v>50</v>
@@ -1937,19 +1934,19 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B30" s="6">
         <v>1</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F30" s="30" t="s">
         <v>50</v>
@@ -1962,19 +1959,19 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B31" s="6">
         <v>1</v>
       </c>
       <c r="C31" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="E31" s="30" t="s">
         <v>117</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="E31" s="30" t="s">
-        <v>171</v>
       </c>
       <c r="F31" s="30" t="s">
         <v>50</v>
@@ -1987,19 +1984,19 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B32" s="6">
         <v>4</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F32" s="30" t="s">
         <v>50</v>
@@ -2012,19 +2009,19 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B33" s="6">
         <v>1</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F33" s="30" t="s">
         <v>50</v>
@@ -2037,19 +2034,19 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B34" s="6">
         <v>1</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F34" s="30" t="s">
         <v>50</v>
@@ -2062,22 +2059,22 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B35" s="6">
         <v>3</v>
       </c>
       <c r="C35" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="E35" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="F35" s="30" t="s">
         <v>176</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="F35" s="30" t="s">
-        <v>178</v>
       </c>
       <c r="G35" s="19"/>
       <c r="K35" s="15"/>
@@ -2087,19 +2084,19 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B36" s="6">
         <v>1</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F36" s="30" t="s">
         <v>48</v>
@@ -2112,19 +2109,19 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B37" s="6">
         <v>2</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F37" s="30" t="s">
         <v>48</v>
@@ -2135,19 +2132,19 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B38" s="6">
         <v>2</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F38" s="30" t="s">
         <v>48</v>
@@ -2158,22 +2155,22 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B39" s="36">
         <v>2</v>
       </c>
       <c r="C39" s="37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D39" s="37" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E39" s="37" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G39" s="19"/>
       <c r="M39" s="15"/>
@@ -2181,22 +2178,22 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B40" s="36">
         <v>2</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D40" s="37" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E40" s="37" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F40" s="30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G40" s="19"/>
       <c r="M40" s="15"/>
@@ -2204,22 +2201,22 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B41" s="36">
         <v>1</v>
       </c>
       <c r="C41" s="37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D41" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="E41" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="F41" s="30" t="s">
         <v>186</v>
-      </c>
-      <c r="E41" s="37" t="s">
-        <v>187</v>
-      </c>
-      <c r="F41" s="30" t="s">
-        <v>188</v>
       </c>
       <c r="G41" s="19"/>
       <c r="M41" s="15"/>
@@ -2227,19 +2224,19 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B42" s="38">
         <v>2</v>
       </c>
       <c r="C42" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D42" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E42" s="37" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F42" s="30" t="s">
         <v>50</v>
@@ -2250,22 +2247,22 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="35" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B43" s="38">
         <v>2</v>
       </c>
       <c r="C43" s="37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="39" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E43" s="39" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F43" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G43" s="19"/>
       <c r="M43" s="15"/>
@@ -2279,13 +2276,13 @@
         <v>2</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D44" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E44" s="37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F44" s="29" t="s">
         <v>48</v>
@@ -2296,19 +2293,19 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B45" s="38">
         <v>1</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D45" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E45" s="37" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F45" s="30" t="s">
         <v>50</v>
@@ -2319,19 +2316,19 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B46" s="38">
         <v>2</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D46" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E46" s="37" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F46" s="30" t="s">
         <v>50</v>
@@ -2342,19 +2339,19 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B47" s="38">
         <v>1</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D47" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E47" s="37" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F47" s="30" t="s">
         <v>50</v>
@@ -2371,7 +2368,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="42" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D48" s="44" t="s">
         <v>41</v>
@@ -2393,10 +2390,10 @@
         <v>1</v>
       </c>
       <c r="C49" s="42" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D49" s="44" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E49" s="40" t="s">
         <v>35</v>
@@ -2415,10 +2412,10 @@
         <v>1</v>
       </c>
       <c r="C50" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D50" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E50" s="44" t="s">
         <v>26</v>
@@ -2437,10 +2434,10 @@
         <v>16</v>
       </c>
       <c r="C51" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D51" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E51" s="44" t="s">
         <v>45</v>
@@ -2460,10 +2457,10 @@
         <v>3</v>
       </c>
       <c r="C52" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D52" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E52" s="44" t="s">
         <v>7</v>
@@ -2483,10 +2480,10 @@
         <v>1</v>
       </c>
       <c r="C53" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D53" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E53" s="44" t="s">
         <v>21</v>
@@ -2506,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="C54" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D54" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E54" s="44" t="s">
         <v>23</v>
@@ -2529,10 +2526,10 @@
         <v>3</v>
       </c>
       <c r="C55" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D55" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E55" s="44" t="s">
         <v>6</v>
@@ -2552,10 +2549,10 @@
         <v>1</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D56" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E56" s="44" t="s">
         <v>5</v>
@@ -2585,10 +2582,10 @@
         <v>1</v>
       </c>
       <c r="C57" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D57" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E57" s="44" t="s">
         <v>8</v>
@@ -2618,16 +2615,16 @@
         <v>1</v>
       </c>
       <c r="C58" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D58" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E58" s="44" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F58" s="44" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G58" s="14"/>
       <c r="H58" s="1"/>
@@ -2651,10 +2648,10 @@
         <v>3</v>
       </c>
       <c r="C59" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D59" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E59" s="44" t="s">
         <v>11</v>
@@ -2674,10 +2671,10 @@
         <v>2</v>
       </c>
       <c r="C60" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D60" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E60" s="44" t="s">
         <v>9</v>
@@ -2697,10 +2694,10 @@
         <v>1</v>
       </c>
       <c r="C61" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>2</v>
@@ -2720,10 +2717,10 @@
         <v>1</v>
       </c>
       <c r="C62" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>32</v>
@@ -2743,10 +2740,10 @@
         <v>1</v>
       </c>
       <c r="C63" s="45" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D63" s="46" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>4</v>
@@ -2766,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="C64" s="46" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D64" s="46" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>37</v>
@@ -2789,10 +2786,10 @@
         <v>1</v>
       </c>
       <c r="C65" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D65" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>39</v>
@@ -2812,10 +2809,10 @@
         <v>4</v>
       </c>
       <c r="C66" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>13</v>
@@ -2835,10 +2832,10 @@
         <v>6</v>
       </c>
       <c r="C67" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D67" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>33</v>
@@ -2858,10 +2855,10 @@
         <v>2</v>
       </c>
       <c r="C68" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D68" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>16</v>
@@ -2879,10 +2876,10 @@
         <v>20</v>
       </c>
       <c r="C69" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>14</v>
